--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.283559979094769</v>
+        <v>5.640569554976691</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3593808249646351</v>
+        <v>0.3850700923501186</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1345128545259748</v>
+        <v>0.1421854356664436</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.041111866040906</v>
+        <v>6.034884223680519</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4054603468522623</v>
+        <v>0.4051637211072773</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1554070467162914</v>
+        <v>0.1553241235004782</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.66624954327577</v>
+        <v>10.03447502705376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3163548692599277</v>
+        <v>0.6483567714484256</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1188602275221754</v>
+        <v>0.2336431843117788</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.05901510629794</v>
+        <v>10.15998055824677</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4064176811934223</v>
+        <v>0.6559803774796601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15583305792398</v>
+        <v>0.2336150363007826</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.143549649882091</v>
+        <v>9.750412221961176</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3500843383930447</v>
+        <v>0.631655388215524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1318623079074054</v>
+        <v>0.2273153340919637</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.611778108630204</v>
+        <v>10.04699149573893</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3124332824657966</v>
+        <v>0.6490541874474344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1178256531867691</v>
+        <v>0.2337055485265449</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.662612866365352</v>
+        <v>10.03115981455601</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3155180656995901</v>
+        <v>0.6481183335656633</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1191117722962414</v>
+        <v>0.2333825783557254</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.640569554976691</v>
+        <v>10.07346713528249</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3850700923501186</v>
+        <v>0.6502714858818837</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1421854356664436</v>
+        <v>0.232600584951633</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.992130165667257</v>
+        <v>9.982507304290685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4021424660859597</v>
+        <v>0.6433624644765414</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1540541544698998</v>
+        <v>0.2299823465371251</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.034884223680519</v>
+        <v>10.0691933361416</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4051637211072773</v>
+        <v>0.6498230848772518</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1553241235004782</v>
+        <v>0.2320851194476619</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.363708606419194</v>
+        <v>6.601501568670119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4669047839131917</v>
+        <v>0.5627180156425015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1234941320096317</v>
+        <v>0.1573402187938888</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.882148924672242</v>
+        <v>12.23811684401124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6589385387782273</v>
+        <v>0.8997373675589774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2225324899354263</v>
+        <v>0.3192891885560631</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.057100903644672</v>
+        <v>12.69227086374512</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6739001928885819</v>
+        <v>0.941401306066512</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2261370230186862</v>
+        <v>0.3288872122525455</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.944133320256036</v>
+        <v>12.02454856453845</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7507951746989813</v>
+        <v>0.8804270057182753</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2472750304138031</v>
+        <v>0.3146082864028143</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.601501568670119</v>
+        <v>6.771723610595826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5627180156425015</v>
+        <v>0.5774736472189149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1573402187938888</v>
+        <v>0.1582483462268681</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.23811684401124</v>
+        <v>12.02787203892573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8997373675589774</v>
+        <v>0.8807343204436667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3192891885560631</v>
+        <v>0.3149842890660423</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.69227086374512</v>
+        <v>12.39955624997949</v>
       </c>
       <c r="C12" t="n">
-        <v>0.941401306066512</v>
+        <v>0.9144466837891269</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3288872122525455</v>
+        <v>0.3224427190430698</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.02454856453845</v>
+        <v>12.05050470203284</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8804270057182753</v>
+        <v>0.8827496603844986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3146082864028143</v>
+        <v>0.3150376740865828</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.06399741861894</v>
+        <v>12.07024702953798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8839868896434826</v>
+        <v>0.8845493143995186</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3157131499361191</v>
+        <v>0.3158341217281856</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.07024702953798</v>
+        <v>12.04589308049476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8845493143995186</v>
+        <v>0.8823565126227416</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3158341217281856</v>
+        <v>0.3153545910983724</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.04589308049476</v>
+        <v>12.03051093454447</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8823565126227416</v>
+        <v>0.8809776910087975</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3153545910983724</v>
+        <v>0.3150752667267326</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.03051093454447</v>
+        <v>12.04480487790915</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8809776910087975</v>
+        <v>0.882246753019109</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3150752667267326</v>
+        <v>0.3152754007636931</v>
       </c>
     </row>
     <row r="12">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.03447502705376</v>
+        <v>10.05099890954471</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6483567714484256</v>
+        <v>0.6496507507814597</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2336431843117788</v>
+        <v>0.2339778299440639</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.16423020253211</v>
+        <v>10.1642207296806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.655955230703999</v>
+        <v>0.6562240556185941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2341995408014527</v>
+        <v>0.2343559239010028</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.750412221961176</v>
+        <v>8.263146910469024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.631655388215524</v>
+        <v>0.545046795924113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2273153340919637</v>
+        <v>0.1888002894503597</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.04699149573893</v>
+        <v>10.05785846310213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6490541874474344</v>
+        <v>0.6501620644305972</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2337055485265449</v>
+        <v>0.2341157288115185</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.03115981455601</v>
+        <v>10.03550630150298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6481183335656633</v>
+        <v>0.6483358213544524</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2333825783557254</v>
+        <v>0.233451240329577</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.07346713528249</v>
+        <v>10.00107627493756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6502714858818837</v>
+        <v>0.6462724884248952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.232600584951633</v>
+        <v>0.2321777977649416</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.18975906963173</v>
+        <v>10.13694353793608</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6566571818316179</v>
+        <v>0.6537503835039336</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2348754880884205</v>
+        <v>0.2336859713495933</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.14934043982478</v>
+        <v>10.14556541269287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6546258506262038</v>
+        <v>0.6540431180115456</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2339157721114406</v>
+        <v>0.2338908697814752</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.04480487790915</v>
+        <v>12.1137684223965</v>
       </c>
       <c r="C11" t="n">
-        <v>0.882246753019109</v>
+        <v>0.8884807086309169</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3152754007636931</v>
+        <v>0.3167245833922492</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.39778028457073</v>
+        <v>12.50368036823227</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9143674254907265</v>
+        <v>0.9241945332839138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3228862699458825</v>
+        <v>0.3255178235046293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.05099890954471</v>
+        <v>20.07794689039671</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6496507507814597</v>
+        <v>0.6488866817624769</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2339778299440639</v>
+        <v>0.2336122772753431</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.1642207296806</v>
+        <v>20.32331503348627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6562240556185941</v>
+        <v>0.6560748348984502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2343559239010028</v>
+        <v>0.2343112342396054</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.263146910469024</v>
+        <v>18.42589716728674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.545046795924113</v>
+        <v>0.6012943417354402</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1888002894503597</v>
+        <v>0.213303915375097</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10.05785846310213</v>
+        <v>20.11529694512681</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6501620644305972</v>
+        <v>0.6502812016412041</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2341157288115185</v>
+        <v>0.2342295461851931</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.03550630150298</v>
+        <v>20.03331221373902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6483358213544524</v>
+        <v>0.6471693990735582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.233451240329577</v>
+        <v>0.232990158020855</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.00107627493756</v>
+        <v>19.91970445049123</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6462724884248952</v>
+        <v>0.6421667316166076</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2321777977649416</v>
+        <v>0.2315299330347285</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.13694353793608</v>
+        <v>20.29038204231667</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6537503835039336</v>
+        <v>0.6542693364775087</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2336859713495933</v>
+        <v>0.233866858395486</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.14556541269287</v>
+        <v>20.31379435050301</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6540431180115456</v>
+        <v>0.6548086451817879</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2338908697814752</v>
+        <v>0.2341807271608592</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.771723610595826</v>
+        <v>13.54344722119162</v>
       </c>
       <c r="C10" t="n">
         <v>0.5774736472189149</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.1137684223965</v>
+        <v>24.17874240243265</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8884807086309169</v>
+        <v>0.8862742528789778</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3167245833922492</v>
+        <v>0.3162158276620562</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.50368036823227</v>
+        <v>25.00736073646453</v>
       </c>
       <c r="C12" t="n">
         <v>0.9241945332839138</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.0733607923773</v>
+        <v>24.14672158475459</v>
       </c>
       <c r="C13" t="n">
         <v>0.8848839294781413</v>

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/7_Erros_todo.xlsx
+++ b/Modelos em Python/7_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="12">
